--- a/data/trans_orig/IP07C19-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP07C19-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D2EF5C5F-6EE8-4B63-B9D5-5CEFBDFC1984}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{009E1B25-2302-477F-8475-8A8BA1077367}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{017019F0-63FF-447B-9521-3A2DF35B6011}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{970241B5-DFC3-4606-9CD7-1C1FD1574E5B}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1544" uniqueCount="835">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1544" uniqueCount="838">
   <si>
     <t>Menores según frecuencia de burlarse de él otros chicos en 2007 (Tasa respuesta: 42,63%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Siempre</t>
@@ -95,13 +95,13 @@
     <t>6,49%</t>
   </si>
   <si>
-    <t>32,97%</t>
+    <t>28,81%</t>
   </si>
   <si>
     <t>3,14%</t>
   </si>
   <si>
-    <t>15,67%</t>
+    <t>17,66%</t>
   </si>
   <si>
     <t>Algunas veces</t>
@@ -110,13 +110,13 @@
     <t>7,7%</t>
   </si>
   <si>
-    <t>30,62%</t>
+    <t>30,23%</t>
   </si>
   <si>
     <t>3,72%</t>
   </si>
   <si>
-    <t>18,41%</t>
+    <t>20,37%</t>
   </si>
   <si>
     <t>Casi nunca</t>
@@ -125,2425 +125,2434 @@
     <t>10,91%</t>
   </si>
   <si>
-    <t>36,72%</t>
+    <t>34,45%</t>
   </si>
   <si>
     <t>15,66%</t>
   </si>
   <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>38,51%</t>
+  </si>
+  <si>
+    <t>13,36%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>28,01%</t>
+  </si>
+  <si>
+    <t>Nunca</t>
+  </si>
+  <si>
+    <t>74,9%</t>
+  </si>
+  <si>
+    <t>49,19%</t>
+  </si>
+  <si>
+    <t>92,78%</t>
+  </si>
+  <si>
+    <t>84,34%</t>
+  </si>
+  <si>
+    <t>61,49%</t>
+  </si>
+  <si>
+    <t>95,53%</t>
+  </si>
+  <si>
+    <t>79,78%</t>
+  </si>
+  <si>
+    <t>63,4%</t>
+  </si>
+  <si>
+    <t>91,19%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>15,12%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>14,63%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>11,33%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>10,38%</t>
+  </si>
+  <si>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>15,71%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>16,97%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>13,23%</t>
+  </si>
+  <si>
+    <t>78,2%</t>
+  </si>
+  <si>
+    <t>68,97%</t>
+  </si>
+  <si>
+    <t>86,12%</t>
+  </si>
+  <si>
+    <t>79,86%</t>
+  </si>
+  <si>
+    <t>68,61%</t>
+  </si>
+  <si>
+    <t>87,61%</t>
+  </si>
+  <si>
+    <t>78,94%</t>
+  </si>
+  <si>
+    <t>71,89%</t>
+  </si>
+  <si>
+    <t>85,02%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>9,07%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>10,69%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>11,2%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>9,27%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>14,92%</t>
+  </si>
+  <si>
+    <t>12,0%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>17,48%</t>
+  </si>
+  <si>
+    <t>10,64%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>14,5%</t>
+  </si>
+  <si>
+    <t>81,28%</t>
+  </si>
+  <si>
+    <t>73,36%</t>
+  </si>
+  <si>
+    <t>86,88%</t>
+  </si>
+  <si>
+    <t>74,87%</t>
+  </si>
+  <si>
+    <t>67,18%</t>
+  </si>
+  <si>
+    <t>80,86%</t>
+  </si>
+  <si>
+    <t>77,97%</t>
+  </si>
+  <si>
+    <t>73,08%</t>
+  </si>
+  <si>
+    <t>82,28%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>10,6%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>14,78%</t>
+  </si>
+  <si>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>15,28%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>12,45%</t>
+  </si>
+  <si>
+    <t>9,67%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>17,14%</t>
+  </si>
+  <si>
+    <t>13,09%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>20,81%</t>
+  </si>
+  <si>
+    <t>11,3%</t>
+  </si>
+  <si>
+    <t>16,02%</t>
+  </si>
+  <si>
+    <t>79,16%</t>
+  </si>
+  <si>
+    <t>71,35%</t>
+  </si>
+  <si>
+    <t>87,06%</t>
+  </si>
+  <si>
+    <t>74,35%</t>
+  </si>
+  <si>
+    <t>64,78%</t>
+  </si>
+  <si>
+    <t>82,74%</t>
+  </si>
+  <si>
+    <t>76,87%</t>
+  </si>
+  <si>
+    <t>70,64%</t>
+  </si>
+  <si>
+    <t>82,64%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>10,66%</t>
+  </si>
+  <si>
+    <t>14,94%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>22,58%</t>
+  </si>
+  <si>
+    <t>9,82%</t>
+  </si>
+  <si>
+    <t>14,07%</t>
+  </si>
+  <si>
+    <t>17,39%</t>
+  </si>
+  <si>
+    <t>11,87%</t>
+  </si>
+  <si>
+    <t>24,58%</t>
+  </si>
+  <si>
+    <t>11,07%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>18,96%</t>
+  </si>
+  <si>
+    <t>14,42%</t>
+  </si>
+  <si>
+    <t>10,32%</t>
+  </si>
+  <si>
+    <t>19,31%</t>
+  </si>
+  <si>
+    <t>73,62%</t>
+  </si>
+  <si>
+    <t>66,41%</t>
+  </si>
+  <si>
+    <t>80,74%</t>
+  </si>
+  <si>
+    <t>70,14%</t>
+  </si>
+  <si>
+    <t>61,45%</t>
+  </si>
+  <si>
+    <t>78,03%</t>
+  </si>
+  <si>
+    <t>71,98%</t>
+  </si>
+  <si>
+    <t>66,0%</t>
+  </si>
+  <si>
+    <t>77,62%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>9,11%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>11,45%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>9,42%</t>
+  </si>
+  <si>
+    <t>11,53%</t>
+  </si>
+  <si>
+    <t>8,84%</t>
+  </si>
+  <si>
+    <t>14,75%</t>
+  </si>
+  <si>
+    <t>11,48%</t>
+  </si>
+  <si>
+    <t>8,93%</t>
+  </si>
+  <si>
+    <t>14,6%</t>
+  </si>
+  <si>
+    <t>11,51%</t>
+  </si>
+  <si>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>13,67%</t>
+  </si>
+  <si>
+    <t>77,87%</t>
+  </si>
+  <si>
+    <t>73,89%</t>
+  </si>
+  <si>
+    <t>81,47%</t>
+  </si>
+  <si>
+    <t>74,69%</t>
+  </si>
+  <si>
+    <t>70,62%</t>
+  </si>
+  <si>
+    <t>78,73%</t>
+  </si>
+  <si>
+    <t>76,33%</t>
+  </si>
+  <si>
+    <t>73,58%</t>
+  </si>
+  <si>
+    <t>79,08%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de burlarse de él otros chicos en 2012 (Tasa respuesta: 43,59%)</t>
+  </si>
+  <si>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>41,35%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>15,21%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>15,93%</t>
+  </si>
+  <si>
+    <t>43,55%</t>
+  </si>
+  <si>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>23,84%</t>
+  </si>
+  <si>
+    <t>32,41%</t>
+  </si>
+  <si>
+    <t>12,08%</t>
+  </si>
+  <si>
+    <t>58,92%</t>
+  </si>
+  <si>
+    <t>18,22%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>37,63%</t>
+  </si>
+  <si>
+    <t>67,59%</t>
+  </si>
+  <si>
+    <t>41,08%</t>
+  </si>
+  <si>
+    <t>87,92%</t>
+  </si>
+  <si>
+    <t>75,86%</t>
+  </si>
+  <si>
+    <t>46,41%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>71,21%</t>
+  </si>
+  <si>
+    <t>52,49%</t>
+  </si>
+  <si>
+    <t>85,93%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>12,43%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>10,72%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>9,91%</t>
+  </si>
+  <si>
+    <t>10,77%</t>
+  </si>
+  <si>
+    <t>19,3%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>12,25%</t>
+  </si>
+  <si>
+    <t>12,04%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>20,44%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>15,38%</t>
+  </si>
+  <si>
+    <t>9,58%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>14,96%</t>
+  </si>
+  <si>
+    <t>17,85%</t>
+  </si>
+  <si>
+    <t>10,58%</t>
+  </si>
+  <si>
+    <t>27,3%</t>
+  </si>
+  <si>
+    <t>14,72%</t>
+  </si>
+  <si>
+    <t>8,08%</t>
+  </si>
+  <si>
+    <t>25,01%</t>
+  </si>
+  <si>
+    <t>16,35%</t>
+  </si>
+  <si>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>23,02%</t>
+  </si>
+  <si>
+    <t>61,11%</t>
+  </si>
+  <si>
+    <t>50,46%</t>
+  </si>
+  <si>
+    <t>70,9%</t>
+  </si>
+  <si>
+    <t>63,53%</t>
+  </si>
+  <si>
+    <t>52,15%</t>
+  </si>
+  <si>
+    <t>73,78%</t>
+  </si>
+  <si>
+    <t>62,27%</t>
+  </si>
+  <si>
+    <t>54,69%</t>
+  </si>
+  <si>
+    <t>70,23%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>9,81%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
+  </si>
+  <si>
     <t>4,49%</t>
   </si>
   <si>
-    <t>38,16%</t>
-  </si>
-  <si>
-    <t>13,36%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>26,47%</t>
-  </si>
-  <si>
-    <t>Nunca</t>
-  </si>
-  <si>
-    <t>74,9%</t>
-  </si>
-  <si>
-    <t>48,74%</t>
-  </si>
-  <si>
-    <t>92,62%</t>
-  </si>
-  <si>
-    <t>84,34%</t>
-  </si>
-  <si>
-    <t>61,84%</t>
-  </si>
-  <si>
-    <t>95,51%</t>
-  </si>
-  <si>
-    <t>79,78%</t>
-  </si>
-  <si>
-    <t>64,52%</t>
-  </si>
-  <si>
-    <t>90,85%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>13,95%</t>
+  </si>
+  <si>
+    <t>9,33%</t>
+  </si>
+  <si>
+    <t>20,34%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>13,11%</t>
+  </si>
+  <si>
+    <t>11,11%</t>
+  </si>
+  <si>
+    <t>15,59%</t>
+  </si>
+  <si>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>14,04%</t>
+  </si>
+  <si>
+    <t>10,24%</t>
+  </si>
+  <si>
+    <t>16,66%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>13,04%</t>
+  </si>
+  <si>
+    <t>12,44%</t>
+  </si>
+  <si>
+    <t>7,89%</t>
+  </si>
+  <si>
+    <t>18,75%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>16,83%</t>
+  </si>
+  <si>
+    <t>11,57%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>15,82%</t>
+  </si>
+  <si>
+    <t>60,6%</t>
+  </si>
+  <si>
+    <t>52,55%</t>
+  </si>
+  <si>
+    <t>68,5%</t>
+  </si>
+  <si>
+    <t>66,58%</t>
+  </si>
+  <si>
+    <t>59,0%</t>
+  </si>
+  <si>
+    <t>73,4%</t>
+  </si>
+  <si>
+    <t>63,64%</t>
+  </si>
+  <si>
+    <t>58,22%</t>
+  </si>
+  <si>
+    <t>69,66%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>10,39%</t>
+  </si>
+  <si>
+    <t>10,34%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>17,16%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>11,72%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>11,94%</t>
+  </si>
+  <si>
+    <t>9,28%</t>
+  </si>
+  <si>
+    <t>16,55%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>11,41%</t>
+  </si>
+  <si>
+    <t>11,85%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>19,47%</t>
+  </si>
+  <si>
+    <t>10,86%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>18,35%</t>
+  </si>
+  <si>
+    <t>11,37%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>16,11%</t>
+  </si>
+  <si>
+    <t>9,74%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>17,64%</t>
+  </si>
+  <si>
+    <t>12,75%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>20,08%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>16,21%</t>
+  </si>
+  <si>
+    <t>68,01%</t>
+  </si>
+  <si>
+    <t>58,38%</t>
+  </si>
+  <si>
+    <t>75,63%</t>
+  </si>
+  <si>
+    <t>56,77%</t>
+  </si>
+  <si>
+    <t>45,99%</t>
+  </si>
+  <si>
+    <t>67,28%</t>
+  </si>
+  <si>
+    <t>62,55%</t>
+  </si>
+  <si>
+    <t>56,25%</t>
+  </si>
+  <si>
+    <t>69,8%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>8,8%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>10,89%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>17,84%</t>
+  </si>
+  <si>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>11,99%</t>
+  </si>
+  <si>
+    <t>10,95%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>18,64%</t>
+  </si>
+  <si>
+    <t>12,48%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>20,05%</t>
+  </si>
+  <si>
+    <t>11,7%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>12,28%</t>
+  </si>
+  <si>
+    <t>19,11%</t>
+  </si>
+  <si>
+    <t>11,98%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>19,86%</t>
+  </si>
+  <si>
+    <t>12,13%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>16,77%</t>
+  </si>
+  <si>
+    <t>68,08%</t>
+  </si>
+  <si>
+    <t>58,2%</t>
+  </si>
+  <si>
+    <t>75,57%</t>
+  </si>
+  <si>
+    <t>59,39%</t>
+  </si>
+  <si>
+    <t>49,99%</t>
+  </si>
+  <si>
+    <t>68,51%</t>
+  </si>
+  <si>
+    <t>63,81%</t>
+  </si>
+  <si>
+    <t>57,27%</t>
+  </si>
+  <si>
+    <t>69,49%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>8,61%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>10,01%</t>
+  </si>
+  <si>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>13,02%</t>
+  </si>
+  <si>
+    <t>10,63%</t>
+  </si>
+  <si>
+    <t>13,89%</t>
+  </si>
+  <si>
+    <t>10,31%</t>
+  </si>
+  <si>
+    <t>12,5%</t>
+  </si>
+  <si>
+    <t>13,66%</t>
+  </si>
+  <si>
+    <t>11,0%</t>
+  </si>
+  <si>
+    <t>17,26%</t>
+  </si>
+  <si>
+    <t>11,77%</t>
+  </si>
+  <si>
+    <t>14,83%</t>
+  </si>
+  <si>
+    <t>12,74%</t>
   </si>
   <si>
     <t>10,47%</t>
   </si>
   <si>
-    <t>6,89%</t>
+    <t>14,77%</t>
+  </si>
+  <si>
+    <t>64,63%</t>
+  </si>
+  <si>
+    <t>59,99%</t>
+  </si>
+  <si>
+    <t>68,53%</t>
+  </si>
+  <si>
+    <t>62,38%</t>
+  </si>
+  <si>
+    <t>57,7%</t>
+  </si>
+  <si>
+    <t>67,03%</t>
+  </si>
+  <si>
+    <t>60,55%</t>
+  </si>
+  <si>
+    <t>66,55%</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de burlarse de él otros chicos en 2016 (Tasa respuesta: 45,77%)</t>
+  </si>
+  <si>
+    <t>37,83%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>20,02%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>27,02%</t>
+  </si>
+  <si>
+    <t>14,36%</t>
+  </si>
+  <si>
+    <t>41,47%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>26,21%</t>
+  </si>
+  <si>
+    <t>15,85%</t>
+  </si>
+  <si>
+    <t>48,65%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>42,07%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>30,56%</t>
+  </si>
+  <si>
+    <t>18,51%</t>
+  </si>
+  <si>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>37,62%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>20,95%</t>
+  </si>
+  <si>
+    <t>66,91%</t>
+  </si>
+  <si>
+    <t>38,12%</t>
+  </si>
+  <si>
+    <t>87,29%</t>
+  </si>
+  <si>
+    <t>68,64%</t>
+  </si>
+  <si>
+    <t>39,43%</t>
+  </si>
+  <si>
+    <t>91,68%</t>
+  </si>
+  <si>
+    <t>67,76%</t>
+  </si>
+  <si>
+    <t>47,72%</t>
+  </si>
+  <si>
+    <t>82,2%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>13,33%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>14,01%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>15,68%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>10,09%</t>
+  </si>
+  <si>
+    <t>22,77%</t>
+  </si>
+  <si>
+    <t>13,48%</t>
+  </si>
+  <si>
+    <t>33,35%</t>
+  </si>
+  <si>
+    <t>17,63%</t>
+  </si>
+  <si>
+    <t>27,53%</t>
+  </si>
+  <si>
+    <t>20,24%</t>
+  </si>
+  <si>
+    <t>14,44%</t>
+  </si>
+  <si>
+    <t>26,91%</t>
+  </si>
+  <si>
+    <t>58,98%</t>
+  </si>
+  <si>
+    <t>46,35%</t>
+  </si>
+  <si>
+    <t>69,12%</t>
+  </si>
+  <si>
+    <t>73,75%</t>
+  </si>
+  <si>
+    <t>63,86%</t>
+  </si>
+  <si>
+    <t>83,15%</t>
+  </si>
+  <si>
+    <t>66,26%</t>
+  </si>
+  <si>
+    <t>58,62%</t>
+  </si>
+  <si>
+    <t>73,6%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>14,39%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>9,77%</t>
+  </si>
+  <si>
+    <t>7,91%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>13,21%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>12,94%</t>
+  </si>
+  <si>
+    <t>11,18%</t>
+  </si>
+  <si>
+    <t>14,52%</t>
+  </si>
+  <si>
+    <t>9,59%</t>
+  </si>
+  <si>
+    <t>21,05%</t>
+  </si>
+  <si>
+    <t>20,76%</t>
+  </si>
+  <si>
+    <t>15,4%</t>
+  </si>
+  <si>
+    <t>27,78%</t>
+  </si>
+  <si>
+    <t>17,62%</t>
+  </si>
+  <si>
+    <t>13,7%</t>
+  </si>
+  <si>
+    <t>22,5%</t>
+  </si>
+  <si>
+    <t>65,66%</t>
+  </si>
+  <si>
+    <t>57,16%</t>
+  </si>
+  <si>
+    <t>73,06%</t>
+  </si>
+  <si>
+    <t>63,55%</t>
+  </si>
+  <si>
+    <t>56,35%</t>
+  </si>
+  <si>
+    <t>71,15%</t>
+  </si>
+  <si>
+    <t>64,61%</t>
+  </si>
+  <si>
+    <t>69,71%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>9,44%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>15,83%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>13,4%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>13,05%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>13,53%</t>
+  </si>
+  <si>
+    <t>20,83%</t>
+  </si>
+  <si>
+    <t>9,89%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>16,64%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>16,85%</t>
+  </si>
+  <si>
+    <t>69,89%</t>
+  </si>
+  <si>
+    <t>60,41%</t>
+  </si>
+  <si>
+    <t>78,62%</t>
+  </si>
+  <si>
+    <t>78,57%</t>
+  </si>
+  <si>
+    <t>69,08%</t>
+  </si>
+  <si>
+    <t>85,76%</t>
+  </si>
+  <si>
+    <t>74,09%</t>
+  </si>
+  <si>
+    <t>67,16%</t>
+  </si>
+  <si>
+    <t>79,27%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>10,67%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>10,65%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>11,76%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>8,89%</t>
+  </si>
+  <si>
+    <t>8,26%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>13,41%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>11,42%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>11,35%</t>
+  </si>
+  <si>
+    <t>27,62%</t>
+  </si>
+  <si>
+    <t>19,53%</t>
+  </si>
+  <si>
+    <t>35,71%</t>
+  </si>
+  <si>
+    <t>27,03%</t>
+  </si>
+  <si>
+    <t>20,22%</t>
+  </si>
+  <si>
+    <t>35,09%</t>
+  </si>
+  <si>
+    <t>27,32%</t>
+  </si>
+  <si>
+    <t>22,05%</t>
+  </si>
+  <si>
+    <t>32,65%</t>
+  </si>
+  <si>
+    <t>56,76%</t>
+  </si>
+  <si>
+    <t>47,3%</t>
+  </si>
+  <si>
+    <t>65,13%</t>
+  </si>
+  <si>
+    <t>54,88%</t>
+  </si>
+  <si>
+    <t>46,39%</t>
+  </si>
+  <si>
+    <t>63,57%</t>
+  </si>
+  <si>
+    <t>55,8%</t>
+  </si>
+  <si>
+    <t>49,7%</t>
+  </si>
+  <si>
+    <t>62,0%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>9,51%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>10,78%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>19,01%</t>
+  </si>
+  <si>
+    <t>22,43%</t>
+  </si>
+  <si>
+    <t>15,75%</t>
+  </si>
+  <si>
+    <t>23,13%</t>
+  </si>
+  <si>
+    <t>19,24%</t>
+  </si>
+  <si>
+    <t>21,86%</t>
+  </si>
+  <si>
+    <t>62,97%</t>
+  </si>
+  <si>
+    <t>58,66%</t>
+  </si>
+  <si>
+    <t>67,35%</t>
+  </si>
+  <si>
+    <t>65,83%</t>
+  </si>
+  <si>
+    <t>61,32%</t>
+  </si>
+  <si>
+    <t>69,91%</t>
+  </si>
+  <si>
+    <t>64,39%</t>
+  </si>
+  <si>
+    <t>61,2%</t>
+  </si>
+  <si>
+    <t>67,55%</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de burlarse de él otros chicos en 2023 (Tasa respuesta: 29,95%)</t>
+  </si>
+  <si>
+    <t>36,25%</t>
+  </si>
+  <si>
+    <t>44,41%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>27,37%</t>
+  </si>
+  <si>
+    <t>84,26%</t>
+  </si>
+  <si>
+    <t>16,24%</t>
+  </si>
+  <si>
+    <t>61,82%</t>
+  </si>
+  <si>
+    <t>72,63%</t>
+  </si>
+  <si>
+    <t>15,74%</t>
+  </si>
+  <si>
+    <t>55,59%</t>
+  </si>
+  <si>
+    <t>83,76%</t>
+  </si>
+  <si>
+    <t>38,18%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>9,98%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>15,07%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>18,47%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>18,95%</t>
+  </si>
+  <si>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>14,46%</t>
+  </si>
+  <si>
+    <t>88,17%</t>
+  </si>
+  <si>
+    <t>76,09%</t>
+  </si>
+  <si>
+    <t>95,34%</t>
+  </si>
+  <si>
+    <t>90,71%</t>
+  </si>
+  <si>
+    <t>78,7%</t>
+  </si>
+  <si>
+    <t>97,81%</t>
+  </si>
+  <si>
+    <t>89,27%</t>
+  </si>
+  <si>
+    <t>79,99%</t>
+  </si>
+  <si>
+    <t>94,49%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>9,65%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>14,06%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>12,32%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>11,06%</t>
+  </si>
+  <si>
+    <t>90,9%</t>
+  </si>
+  <si>
+    <t>82,85%</t>
+  </si>
+  <si>
+    <t>95,73%</t>
+  </si>
+  <si>
+    <t>85,73%</t>
+  </si>
+  <si>
+    <t>77,3%</t>
+  </si>
+  <si>
+    <t>92,84%</t>
+  </si>
+  <si>
+    <t>89,05%</t>
+  </si>
+  <si>
+    <t>83,79%</t>
+  </si>
+  <si>
+    <t>92,46%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>9,29%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>9,19%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>14,7%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>36,33%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>18,66%</t>
+  </si>
+  <si>
+    <t>12,01%</t>
+  </si>
+  <si>
+    <t>23,31%</t>
+  </si>
+  <si>
+    <t>81,79%</t>
+  </si>
+  <si>
+    <t>60,92%</t>
+  </si>
+  <si>
+    <t>91,28%</t>
+  </si>
+  <si>
+    <t>88,24%</t>
+  </si>
+  <si>
+    <t>78,14%</t>
+  </si>
+  <si>
+    <t>94,92%</t>
+  </si>
+  <si>
+    <t>84,81%</t>
+  </si>
+  <si>
+    <t>72,5%</t>
+  </si>
+  <si>
+    <t>90,79%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
   </si>
   <si>
     <t>2,71%</t>
   </si>
   <si>
-    <t>15,34%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>9,66%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>14,59%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>11,12%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>10,69%</t>
-  </si>
-  <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>15,84%</t>
-  </si>
-  <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>16,89%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>13,59%</t>
-  </si>
-  <si>
-    <t>78,2%</t>
-  </si>
-  <si>
-    <t>68,74%</t>
-  </si>
-  <si>
-    <t>85,19%</t>
-  </si>
-  <si>
-    <t>79,86%</t>
-  </si>
-  <si>
-    <t>68,26%</t>
-  </si>
-  <si>
-    <t>88,46%</t>
-  </si>
-  <si>
-    <t>78,94%</t>
-  </si>
-  <si>
-    <t>71,54%</t>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>15,96%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>14,85%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>12,57%</t>
+  </si>
+  <si>
+    <t>88,7%</t>
+  </si>
+  <si>
+    <t>79,6%</t>
+  </si>
+  <si>
+    <t>87,21%</t>
+  </si>
+  <si>
+    <t>76,64%</t>
+  </si>
+  <si>
+    <t>93,23%</t>
+  </si>
+  <si>
+    <t>87,95%</t>
+  </si>
+  <si>
+    <t>81,36%</t>
+  </si>
+  <si>
+    <t>92,6%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>9,03%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>10,46%</t>
+  </si>
+  <si>
+    <t>11,22%</t>
+  </si>
+  <si>
+    <t>87,69%</t>
+  </si>
+  <si>
+    <t>91,23%</t>
+  </si>
+  <si>
+    <t>87,73%</t>
+  </si>
+  <si>
+    <t>83,59%</t>
+  </si>
+  <si>
+    <t>91,57%</t>
+  </si>
+  <si>
+    <t>87,7%</t>
   </si>
   <si>
     <t>84,23%</t>
   </si>
   <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>9,33%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>10,93%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>12,22%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>9,38%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>14,81%</t>
-  </si>
-  <si>
-    <t>12,0%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>17,37%</t>
-  </si>
-  <si>
-    <t>10,64%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>14,53%</t>
-  </si>
-  <si>
-    <t>81,28%</t>
-  </si>
-  <si>
-    <t>73,55%</t>
-  </si>
-  <si>
-    <t>87,21%</t>
-  </si>
-  <si>
-    <t>74,87%</t>
-  </si>
-  <si>
-    <t>67,86%</t>
-  </si>
-  <si>
-    <t>80,78%</t>
-  </si>
-  <si>
-    <t>77,97%</t>
-  </si>
-  <si>
-    <t>73,22%</t>
-  </si>
-  <si>
-    <t>82,18%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>10,41%</t>
-  </si>
-  <si>
-    <t>8,28%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>14,33%</t>
-  </si>
-  <si>
-    <t>7,94%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>14,63%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>12,55%</t>
-  </si>
-  <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>16,54%</t>
-  </si>
-  <si>
-    <t>13,09%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>22,68%</t>
-  </si>
-  <si>
-    <t>11,3%</t>
-  </si>
-  <si>
-    <t>7,28%</t>
-  </si>
-  <si>
-    <t>16,04%</t>
-  </si>
-  <si>
-    <t>79,16%</t>
-  </si>
-  <si>
-    <t>70,97%</t>
-  </si>
-  <si>
-    <t>86,62%</t>
-  </si>
-  <si>
-    <t>74,35%</t>
-  </si>
-  <si>
-    <t>64,77%</t>
-  </si>
-  <si>
-    <t>82,37%</t>
-  </si>
-  <si>
-    <t>76,87%</t>
-  </si>
-  <si>
-    <t>70,34%</t>
-  </si>
-  <si>
-    <t>82,22%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>9,98%</t>
-  </si>
-  <si>
-    <t>14,94%</t>
-  </si>
-  <si>
-    <t>9,09%</t>
-  </si>
-  <si>
-    <t>23,44%</t>
-  </si>
-  <si>
-    <t>9,82%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>14,18%</t>
-  </si>
-  <si>
-    <t>17,39%</t>
-  </si>
-  <si>
-    <t>24,66%</t>
-  </si>
-  <si>
-    <t>11,07%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>18,73%</t>
-  </si>
-  <si>
-    <t>14,42%</t>
-  </si>
-  <si>
-    <t>10,31%</t>
-  </si>
-  <si>
-    <t>19,3%</t>
-  </si>
-  <si>
-    <t>73,62%</t>
-  </si>
-  <si>
-    <t>64,9%</t>
-  </si>
-  <si>
-    <t>80,98%</t>
-  </si>
-  <si>
-    <t>70,14%</t>
-  </si>
-  <si>
-    <t>61,11%</t>
-  </si>
-  <si>
-    <t>71,98%</t>
-  </si>
-  <si>
-    <t>65,58%</t>
-  </si>
-  <si>
-    <t>77,52%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>11,46%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>9,46%</t>
-  </si>
-  <si>
-    <t>11,53%</t>
-  </si>
-  <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>14,61%</t>
-  </si>
-  <si>
-    <t>11,48%</t>
-  </si>
-  <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>14,65%</t>
-  </si>
-  <si>
-    <t>11,51%</t>
-  </si>
-  <si>
-    <t>9,61%</t>
-  </si>
-  <si>
-    <t>14,07%</t>
-  </si>
-  <si>
-    <t>77,87%</t>
-  </si>
-  <si>
-    <t>73,61%</t>
-  </si>
-  <si>
-    <t>81,29%</t>
-  </si>
-  <si>
-    <t>74,69%</t>
-  </si>
-  <si>
-    <t>70,31%</t>
-  </si>
-  <si>
-    <t>78,55%</t>
-  </si>
-  <si>
-    <t>76,33%</t>
-  </si>
-  <si>
-    <t>73,46%</t>
-  </si>
-  <si>
-    <t>78,98%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de burlarse de él otros chicos en 2012 (Tasa respuesta: 43,59%)</t>
-  </si>
-  <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>33,13%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>17,81%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>15,93%</t>
-  </si>
-  <si>
-    <t>47,38%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>21,68%</t>
-  </si>
-  <si>
-    <t>32,41%</t>
-  </si>
-  <si>
-    <t>11,77%</t>
-  </si>
-  <si>
-    <t>56,3%</t>
-  </si>
-  <si>
-    <t>18,22%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>36,07%</t>
-  </si>
-  <si>
-    <t>67,59%</t>
-  </si>
-  <si>
-    <t>43,7%</t>
-  </si>
-  <si>
-    <t>88,23%</t>
-  </si>
-  <si>
-    <t>75,86%</t>
-  </si>
-  <si>
-    <t>44,3%</t>
-  </si>
-  <si>
-    <t>92,3%</t>
-  </si>
-  <si>
-    <t>71,21%</t>
-  </si>
-  <si>
-    <t>52,6%</t>
-  </si>
-  <si>
-    <t>86,3%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>11,31%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>10,88%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>9,88%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>9,21%</t>
-  </si>
-  <si>
-    <t>10,77%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>19,49%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>12,81%</t>
-  </si>
-  <si>
-    <t>12,04%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>20,76%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>15,52%</t>
-  </si>
-  <si>
-    <t>9,58%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>17,85%</t>
-  </si>
-  <si>
-    <t>11,03%</t>
-  </si>
-  <si>
-    <t>27,4%</t>
-  </si>
-  <si>
-    <t>14,72%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>26,11%</t>
-  </si>
-  <si>
-    <t>16,35%</t>
-  </si>
-  <si>
-    <t>11,21%</t>
-  </si>
-  <si>
-    <t>22,71%</t>
-  </si>
-  <si>
-    <t>49,65%</t>
-  </si>
-  <si>
-    <t>70,46%</t>
-  </si>
-  <si>
-    <t>63,53%</t>
-  </si>
-  <si>
-    <t>51,23%</t>
-  </si>
-  <si>
-    <t>74,31%</t>
-  </si>
-  <si>
-    <t>62,27%</t>
-  </si>
-  <si>
-    <t>54,27%</t>
-  </si>
-  <si>
-    <t>68,76%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>9,19%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>13,95%</t>
-  </si>
-  <si>
-    <t>9,01%</t>
-  </si>
-  <si>
-    <t>20,73%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>13,6%</t>
-  </si>
-  <si>
-    <t>11,11%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>15,27%</t>
-  </si>
-  <si>
-    <t>8,09%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>14,0%</t>
-  </si>
-  <si>
-    <t>10,24%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>15,91%</t>
-  </si>
-  <si>
-    <t>12,68%</t>
-  </si>
-  <si>
-    <t>12,44%</t>
-  </si>
-  <si>
-    <t>18,81%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>16,88%</t>
-  </si>
-  <si>
-    <t>11,57%</t>
-  </si>
-  <si>
-    <t>8,23%</t>
-  </si>
-  <si>
-    <t>60,6%</t>
-  </si>
-  <si>
-    <t>51,79%</t>
-  </si>
-  <si>
-    <t>68,33%</t>
-  </si>
-  <si>
-    <t>66,58%</t>
-  </si>
-  <si>
-    <t>58,84%</t>
-  </si>
-  <si>
-    <t>63,64%</t>
-  </si>
-  <si>
-    <t>57,86%</t>
-  </si>
-  <si>
-    <t>68,94%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>11,09%</t>
-  </si>
-  <si>
-    <t>10,34%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>17,69%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>11,54%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>12,19%</t>
-  </si>
-  <si>
-    <t>9,28%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>16,02%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>11,62%</t>
-  </si>
-  <si>
-    <t>11,85%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>19,81%</t>
-  </si>
-  <si>
-    <t>10,86%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>18,35%</t>
-  </si>
-  <si>
-    <t>11,37%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>16,49%</t>
-  </si>
-  <si>
-    <t>9,74%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>16,87%</t>
-  </si>
-  <si>
-    <t>12,75%</t>
-  </si>
-  <si>
-    <t>20,6%</t>
-  </si>
-  <si>
-    <t>11,2%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>16,23%</t>
-  </si>
-  <si>
-    <t>68,01%</t>
-  </si>
-  <si>
-    <t>57,17%</t>
-  </si>
-  <si>
-    <t>75,85%</t>
-  </si>
-  <si>
-    <t>56,77%</t>
-  </si>
-  <si>
-    <t>46,95%</t>
-  </si>
-  <si>
-    <t>65,86%</t>
-  </si>
-  <si>
-    <t>62,55%</t>
-  </si>
-  <si>
-    <t>56,05%</t>
-  </si>
-  <si>
-    <t>69,12%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>8,67%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>10,18%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>11,39%</t>
-  </si>
-  <si>
-    <t>10,72%</t>
-  </si>
-  <si>
-    <t>17,62%</t>
-  </si>
-  <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>12,29%</t>
-  </si>
-  <si>
-    <t>10,95%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>17,42%</t>
-  </si>
-  <si>
-    <t>12,48%</t>
-  </si>
-  <si>
-    <t>20,36%</t>
-  </si>
-  <si>
-    <t>11,7%</t>
-  </si>
-  <si>
-    <t>16,7%</t>
-  </si>
-  <si>
-    <t>12,28%</t>
-  </si>
-  <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>19,14%</t>
-  </si>
-  <si>
-    <t>11,98%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>19,43%</t>
-  </si>
-  <si>
-    <t>12,13%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>16,66%</t>
-  </si>
-  <si>
-    <t>68,08%</t>
-  </si>
-  <si>
-    <t>59,36%</t>
-  </si>
-  <si>
-    <t>76,22%</t>
-  </si>
-  <si>
-    <t>59,39%</t>
-  </si>
-  <si>
-    <t>50,25%</t>
-  </si>
-  <si>
-    <t>68,61%</t>
-  </si>
-  <si>
-    <t>63,81%</t>
-  </si>
-  <si>
-    <t>57,98%</t>
-  </si>
-  <si>
-    <t>69,86%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>10,03%</t>
-  </si>
-  <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>12,46%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>10,28%</t>
-  </si>
-  <si>
-    <t>10,01%</t>
-  </si>
-  <si>
-    <t>12,99%</t>
-  </si>
-  <si>
-    <t>10,63%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>13,85%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>13,66%</t>
-  </si>
-  <si>
-    <t>10,97%</t>
-  </si>
-  <si>
-    <t>17,27%</t>
-  </si>
-  <si>
-    <t>9,34%</t>
-  </si>
-  <si>
-    <t>12,74%</t>
-  </si>
-  <si>
-    <t>10,7%</t>
-  </si>
-  <si>
-    <t>14,98%</t>
-  </si>
-  <si>
-    <t>64,63%</t>
-  </si>
-  <si>
-    <t>60,43%</t>
-  </si>
-  <si>
-    <t>68,88%</t>
-  </si>
-  <si>
-    <t>62,38%</t>
-  </si>
-  <si>
-    <t>57,64%</t>
-  </si>
-  <si>
-    <t>66,62%</t>
-  </si>
-  <si>
-    <t>60,58%</t>
-  </si>
-  <si>
-    <t>66,52%</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de burlarse de él otros chicos en 2015 (Tasa respuesta: 45,77%)</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>31,93%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>19,38%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>25,84%</t>
-  </si>
-  <si>
-    <t>14,36%</t>
-  </si>
-  <si>
-    <t>47,3%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>27,01%</t>
-  </si>
-  <si>
-    <t>15,85%</t>
-  </si>
-  <si>
-    <t>46,97%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>37,8%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>32,9%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>18,85%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>32,34%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>20,29%</t>
-  </si>
-  <si>
-    <t>66,91%</t>
-  </si>
-  <si>
-    <t>36,96%</t>
-  </si>
-  <si>
-    <t>87,94%</t>
-  </si>
-  <si>
-    <t>68,64%</t>
-  </si>
-  <si>
-    <t>39,76%</t>
-  </si>
-  <si>
-    <t>91,77%</t>
-  </si>
-  <si>
-    <t>67,76%</t>
-  </si>
-  <si>
-    <t>48,37%</t>
-  </si>
-  <si>
-    <t>83,55%</t>
-  </si>
-  <si>
-    <t>13,05%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>14,16%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>11,13%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>9,76%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>10,07%</t>
-  </si>
-  <si>
-    <t>22,77%</t>
-  </si>
-  <si>
-    <t>14,5%</t>
-  </si>
-  <si>
-    <t>33,36%</t>
-  </si>
-  <si>
-    <t>17,63%</t>
-  </si>
-  <si>
-    <t>10,8%</t>
-  </si>
-  <si>
-    <t>28,4%</t>
-  </si>
-  <si>
-    <t>20,24%</t>
-  </si>
-  <si>
-    <t>14,44%</t>
-  </si>
-  <si>
-    <t>27,05%</t>
-  </si>
-  <si>
-    <t>58,98%</t>
-  </si>
-  <si>
-    <t>47,63%</t>
-  </si>
-  <si>
-    <t>68,78%</t>
-  </si>
-  <si>
-    <t>73,75%</t>
-  </si>
-  <si>
-    <t>63,03%</t>
-  </si>
-  <si>
-    <t>82,14%</t>
-  </si>
-  <si>
-    <t>66,26%</t>
-  </si>
-  <si>
-    <t>58,59%</t>
-  </si>
-  <si>
-    <t>74,01%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>13,76%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>8,93%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>9,64%</t>
-  </si>
-  <si>
-    <t>7,91%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>14,52%</t>
-  </si>
-  <si>
-    <t>21,79%</t>
-  </si>
-  <si>
-    <t>14,49%</t>
-  </si>
-  <si>
-    <t>28,32%</t>
-  </si>
-  <si>
-    <t>13,72%</t>
-  </si>
-  <si>
-    <t>21,85%</t>
-  </si>
-  <si>
-    <t>65,66%</t>
-  </si>
-  <si>
-    <t>57,1%</t>
-  </si>
-  <si>
-    <t>72,5%</t>
-  </si>
-  <si>
-    <t>63,55%</t>
-  </si>
-  <si>
-    <t>55,61%</t>
-  </si>
-  <si>
-    <t>64,61%</t>
-  </si>
-  <si>
-    <t>59,24%</t>
-  </si>
-  <si>
-    <t>70,01%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>9,68%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>15,71%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>11,08%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>12,47%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>13,53%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>21,53%</t>
-  </si>
-  <si>
-    <t>9,89%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>16,8%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>16,72%</t>
-  </si>
-  <si>
-    <t>69,89%</t>
-  </si>
-  <si>
-    <t>60,65%</t>
-  </si>
-  <si>
-    <t>78,86%</t>
-  </si>
-  <si>
-    <t>78,57%</t>
-  </si>
-  <si>
-    <t>69,02%</t>
-  </si>
-  <si>
-    <t>84,73%</t>
-  </si>
-  <si>
-    <t>74,09%</t>
-  </si>
-  <si>
-    <t>68,22%</t>
-  </si>
-  <si>
-    <t>79,89%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>10,85%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>10,27%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>11,59%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>10,59%</t>
-  </si>
-  <si>
-    <t>27,62%</t>
-  </si>
-  <si>
-    <t>20,34%</t>
-  </si>
-  <si>
-    <t>35,8%</t>
-  </si>
-  <si>
-    <t>27,03%</t>
-  </si>
-  <si>
-    <t>20,62%</t>
-  </si>
-  <si>
-    <t>34,98%</t>
-  </si>
-  <si>
-    <t>27,32%</t>
-  </si>
-  <si>
-    <t>21,81%</t>
-  </si>
-  <si>
-    <t>33,12%</t>
-  </si>
-  <si>
-    <t>56,76%</t>
-  </si>
-  <si>
-    <t>48,14%</t>
-  </si>
-  <si>
-    <t>64,64%</t>
-  </si>
-  <si>
-    <t>54,88%</t>
-  </si>
-  <si>
-    <t>46,7%</t>
-  </si>
-  <si>
-    <t>63,27%</t>
-  </si>
-  <si>
-    <t>55,8%</t>
-  </si>
-  <si>
-    <t>49,6%</t>
-  </si>
-  <si>
-    <t>61,81%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>19,01%</t>
-  </si>
-  <si>
-    <t>15,45%</t>
-  </si>
-  <si>
-    <t>23,0%</t>
-  </si>
-  <si>
-    <t>19,47%</t>
-  </si>
-  <si>
-    <t>16,17%</t>
-  </si>
-  <si>
-    <t>23,49%</t>
-  </si>
-  <si>
-    <t>19,24%</t>
-  </si>
-  <si>
-    <t>16,93%</t>
-  </si>
-  <si>
-    <t>22,08%</t>
-  </si>
-  <si>
-    <t>62,97%</t>
-  </si>
-  <si>
-    <t>58,15%</t>
-  </si>
-  <si>
-    <t>67,01%</t>
-  </si>
-  <si>
-    <t>65,83%</t>
-  </si>
-  <si>
-    <t>61,78%</t>
-  </si>
-  <si>
-    <t>70,08%</t>
-  </si>
-  <si>
-    <t>64,39%</t>
-  </si>
-  <si>
-    <t>61,2%</t>
-  </si>
-  <si>
-    <t>67,47%</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de burlarse de él otros chicos en 2023 (Tasa respuesta: 29,95%)</t>
-  </si>
-  <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>44,41%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>27,37%</t>
-  </si>
-  <si>
-    <t>78,78%</t>
-  </si>
-  <si>
-    <t>16,24%</t>
-  </si>
-  <si>
-    <t>61,02%</t>
-  </si>
-  <si>
-    <t>72,63%</t>
-  </si>
-  <si>
-    <t>21,22%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>55,59%</t>
-  </si>
-  <si>
-    <t>83,76%</t>
-  </si>
-  <si>
-    <t>38,98%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>17,44%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>19,07%</t>
-  </si>
-  <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>88,17%</t>
-  </si>
-  <si>
-    <t>76,31%</t>
-  </si>
-  <si>
-    <t>95,42%</t>
-  </si>
-  <si>
-    <t>90,71%</t>
-  </si>
-  <si>
-    <t>78,77%</t>
-  </si>
-  <si>
-    <t>97,52%</t>
-  </si>
-  <si>
-    <t>89,27%</t>
-  </si>
-  <si>
-    <t>81,65%</t>
-  </si>
-  <si>
-    <t>95,14%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>10,84%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>10,21%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>11,56%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>11,06%</t>
-  </si>
-  <si>
-    <t>90,9%</t>
-  </si>
-  <si>
-    <t>84,18%</t>
-  </si>
-  <si>
-    <t>95,29%</t>
-  </si>
-  <si>
-    <t>85,73%</t>
-  </si>
-  <si>
-    <t>76,68%</t>
-  </si>
-  <si>
-    <t>92,22%</t>
-  </si>
-  <si>
-    <t>89,05%</t>
-  </si>
-  <si>
-    <t>83,19%</t>
-  </si>
-  <si>
-    <t>92,86%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>14,7%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>18,24%</t>
-  </si>
-  <si>
-    <t>12,01%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>24,65%</t>
-  </si>
-  <si>
-    <t>81,79%</t>
-  </si>
-  <si>
-    <t>62,83%</t>
-  </si>
-  <si>
-    <t>91,08%</t>
-  </si>
-  <si>
-    <t>88,24%</t>
-  </si>
-  <si>
-    <t>78,22%</t>
-  </si>
-  <si>
-    <t>95,01%</t>
-  </si>
-  <si>
-    <t>84,81%</t>
-  </si>
-  <si>
-    <t>73,95%</t>
-  </si>
-  <si>
-    <t>91,03%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>15,56%</t>
-  </si>
-  <si>
-    <t>15,03%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>12,56%</t>
-  </si>
-  <si>
-    <t>88,7%</t>
-  </si>
-  <si>
-    <t>79,55%</t>
-  </si>
-  <si>
-    <t>94,59%</t>
-  </si>
-  <si>
-    <t>77,94%</t>
-  </si>
-  <si>
-    <t>93,45%</t>
-  </si>
-  <si>
-    <t>87,95%</t>
-  </si>
-  <si>
-    <t>81,69%</t>
-  </si>
-  <si>
-    <t>93,0%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>14,55%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>8,08%</t>
-  </si>
-  <si>
-    <t>11,6%</t>
-  </si>
-  <si>
-    <t>87,69%</t>
-  </si>
-  <si>
-    <t>82,12%</t>
-  </si>
-  <si>
-    <t>91,31%</t>
-  </si>
-  <si>
-    <t>87,73%</t>
-  </si>
-  <si>
-    <t>83,09%</t>
-  </si>
-  <si>
-    <t>91,34%</t>
-  </si>
-  <si>
-    <t>87,7%</t>
-  </si>
-  <si>
-    <t>84,15%</t>
-  </si>
-  <si>
-    <t>90,32%</t>
+    <t>90,54%</t>
   </si>
 </sst>
 </file>
@@ -2955,7 +2964,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2B73BF6-CA4E-407F-BA91-0351B6A3000D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C16FEFD8-3ACE-4C28-BCDD-7851A260BF81}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3764,10 +3773,10 @@
         <v>99</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>54</v>
+        <v>100</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M17" s="7">
         <v>11</v>
@@ -3776,13 +3785,13 @@
         <v>7049</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>103</v>
+        <v>59</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4024,7 +4033,7 @@
         <v>11</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="M22" s="7">
         <v>3</v>
@@ -4033,13 +4042,13 @@
         <v>1758</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4054,13 +4063,13 @@
         <v>647</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="H23" s="7">
         <v>3</v>
@@ -4069,7 +4078,7 @@
         <v>1938</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>140</v>
+        <v>95</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>141</v>
@@ -4087,10 +4096,10 @@
         <v>96</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>61</v>
+        <v>143</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>99</v>
+        <v>144</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4105,13 +4114,13 @@
         <v>5085</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="H24" s="7">
         <v>8</v>
@@ -4120,13 +4129,13 @@
         <v>4420</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="M24" s="7">
         <v>17</v>
@@ -4135,13 +4144,13 @@
         <v>9505</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4156,13 +4165,13 @@
         <v>5936</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="H25" s="7">
         <v>12</v>
@@ -4171,13 +4180,13 @@
         <v>7285</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="M25" s="7">
         <v>22</v>
@@ -4186,13 +4195,13 @@
         <v>13221</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="P25" s="7" t="s">
-        <v>159</v>
-      </c>
       <c r="Q25" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4207,13 +4216,13 @@
         <v>48583</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="H26" s="7">
         <v>67</v>
@@ -4222,13 +4231,13 @@
         <v>41378</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="M26" s="7">
         <v>142</v>
@@ -4237,13 +4246,13 @@
         <v>89962</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4299,7 +4308,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -4311,13 +4320,13 @@
         <v>2637</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>97</v>
+        <v>173</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="H28" s="7">
         <v>2</v>
@@ -4326,13 +4335,13 @@
         <v>1513</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="K28" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="M28" s="7">
         <v>6</v>
@@ -4341,13 +4350,13 @@
         <v>4150</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4362,13 +4371,13 @@
         <v>644</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>178</v>
+        <v>97</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="H29" s="7">
         <v>2</v>
@@ -4377,13 +4386,13 @@
         <v>1502</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="K29" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M29" s="7">
         <v>3</v>
@@ -4392,13 +4401,13 @@
         <v>2146</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4413,13 +4422,13 @@
         <v>4640</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="H30" s="7">
         <v>15</v>
@@ -4428,13 +4437,13 @@
         <v>11699</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="M30" s="7">
         <v>22</v>
@@ -4443,10 +4452,10 @@
         <v>16339</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>192</v>
+        <v>110</v>
       </c>
       <c r="Q30" s="7" t="s">
         <v>193</v>
@@ -4467,10 +4476,10 @@
         <v>194</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>158</v>
+        <v>195</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="H31" s="7">
         <v>11</v>
@@ -4479,13 +4488,13 @@
         <v>8671</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="M31" s="7">
         <v>33</v>
@@ -4494,13 +4503,13 @@
         <v>23994</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -4515,13 +4524,13 @@
         <v>64885</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="H32" s="7">
         <v>72</v>
@@ -4530,13 +4539,13 @@
         <v>54924</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>87</v>
+        <v>208</v>
       </c>
       <c r="M32" s="7">
         <v>166</v>
@@ -4545,13 +4554,13 @@
         <v>119808</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -4619,13 +4628,13 @@
         <v>7426</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>212</v>
+        <v>66</v>
       </c>
       <c r="H34" s="7">
         <v>10</v>
@@ -4634,13 +4643,13 @@
         <v>6487</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>134</v>
+        <v>215</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="M34" s="7">
         <v>22</v>
@@ -4649,13 +4658,13 @@
         <v>13913</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -4670,13 +4679,13 @@
         <v>5290</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="H35" s="7">
         <v>14</v>
@@ -4685,13 +4694,13 @@
         <v>9068</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>92</v>
+        <v>225</v>
       </c>
       <c r="M35" s="7">
         <v>22</v>
@@ -4700,13 +4709,13 @@
         <v>14357</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -4724,10 +4733,10 @@
         <v>17</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>189</v>
+        <v>230</v>
       </c>
       <c r="H36" s="7">
         <v>37</v>
@@ -4736,13 +4745,13 @@
         <v>24570</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="M36" s="7">
         <v>68</v>
@@ -4751,13 +4760,13 @@
         <v>44661</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>69</v>
+        <v>235</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -4772,13 +4781,13 @@
         <v>35703</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="H37" s="7">
         <v>50</v>
@@ -4787,13 +4796,13 @@
         <v>33278</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="M37" s="7">
         <v>104</v>
@@ -4802,13 +4811,13 @@
         <v>68981</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -4823,13 +4832,13 @@
         <v>241068</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="H38" s="7">
         <v>320</v>
@@ -4838,13 +4847,13 @@
         <v>216589</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="M38" s="7">
         <v>681</v>
@@ -4853,13 +4862,13 @@
         <v>457658</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -4915,7 +4924,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
     </row>
   </sheetData>
@@ -4936,7 +4945,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B85B7F4F-7736-49F7-A5D1-FC5EC58D510A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6F4DEF5-980C-4CD9-8051-10862CBCB0BD}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4953,7 +4962,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5075,13 +5084,13 @@
         <v>926</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="M4" s="7">
         <v>1</v>
@@ -5090,13 +5099,13 @@
         <v>926</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5132,7 +5141,7 @@
         <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -5147,7 +5156,7 @@
         <v>12</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5177,13 +5186,13 @@
         <v>1796</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="M6" s="7">
         <v>2</v>
@@ -5192,13 +5201,13 @@
         <v>1796</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="P6" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5213,13 +5222,13 @@
         <v>4696</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -5234,7 +5243,7 @@
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="M7" s="7">
         <v>5</v>
@@ -5243,13 +5252,13 @@
         <v>4696</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5264,13 +5273,13 @@
         <v>9794</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="H8" s="7">
         <v>10</v>
@@ -5279,13 +5288,13 @@
         <v>8554</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="M8" s="7">
         <v>21</v>
@@ -5294,13 +5303,13 @@
         <v>18348</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5368,13 +5377,13 @@
         <v>3176</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>278</v>
+        <v>96</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="H10" s="7">
         <v>3</v>
@@ -5383,13 +5392,13 @@
         <v>2141</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>281</v>
+        <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="M10" s="7">
         <v>8</v>
@@ -5398,13 +5407,13 @@
         <v>5317</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>285</v>
+        <v>230</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5419,13 +5428,13 @@
         <v>1940</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="H11" s="7">
         <v>8</v>
@@ -5434,13 +5443,13 @@
         <v>5617</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>290</v>
+        <v>99</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="M11" s="7">
         <v>11</v>
@@ -5449,13 +5458,13 @@
         <v>7557</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>147</v>
+        <v>294</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5470,13 +5479,13 @@
         <v>6846</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="H12" s="7">
         <v>5</v>
@@ -5485,13 +5494,13 @@
         <v>3592</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="M12" s="7">
         <v>15</v>
@@ -5500,13 +5509,13 @@
         <v>10438</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>115</v>
+        <v>304</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5521,13 +5530,13 @@
         <v>10143</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="H13" s="7">
         <v>11</v>
@@ -5536,13 +5545,13 @@
         <v>7677</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="M13" s="7">
         <v>26</v>
@@ -5551,13 +5560,13 @@
         <v>17821</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5572,13 +5581,13 @@
         <v>34736</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>206</v>
+        <v>314</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="H14" s="7">
         <v>46</v>
@@ -5587,13 +5596,13 @@
         <v>33143</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="M14" s="7">
         <v>96</v>
@@ -5602,13 +5611,13 @@
         <v>67879</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5676,13 +5685,13 @@
         <v>4655</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>319</v>
+        <v>179</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="H16" s="7">
         <v>6</v>
@@ -5691,13 +5700,13 @@
         <v>3990</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>322</v>
+        <v>185</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="M16" s="7">
         <v>13</v>
@@ -5706,13 +5715,13 @@
         <v>8646</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>30</v>
+        <v>327</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>284</v>
+        <v>328</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5727,13 +5736,13 @@
         <v>13188</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="H17" s="7">
         <v>13</v>
@@ -5742,13 +5751,13 @@
         <v>8188</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>330</v>
+        <v>79</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="M17" s="7">
         <v>33</v>
@@ -5757,13 +5766,13 @@
         <v>21376</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>333</v>
+        <v>135</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5778,13 +5787,13 @@
         <v>7646</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="H18" s="7">
         <v>15</v>
@@ -5793,13 +5802,13 @@
         <v>10020</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>339</v>
+        <v>59</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="M18" s="7">
         <v>26</v>
@@ -5811,10 +5820,10 @@
         <v>113</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>174</v>
+        <v>342</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5829,13 +5838,13 @@
         <v>11765</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>120</v>
+        <v>345</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="H19" s="7">
         <v>16</v>
@@ -5844,13 +5853,13 @@
         <v>10498</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="M19" s="7">
         <v>34</v>
@@ -5859,13 +5868,13 @@
         <v>22262</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>29</v>
+        <v>352</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5880,13 +5889,13 @@
         <v>57298</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="H20" s="7">
         <v>98</v>
@@ -5895,13 +5904,13 @@
         <v>65141</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>164</v>
+        <v>358</v>
       </c>
       <c r="M20" s="7">
         <v>183</v>
@@ -5910,13 +5919,13 @@
         <v>122438</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5984,13 +5993,13 @@
         <v>3352</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>358</v>
+        <v>220</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="H22" s="7">
         <v>10</v>
@@ -5999,13 +6008,13 @@
         <v>6738</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="M22" s="7">
         <v>15</v>
@@ -6014,13 +6023,13 @@
         <v>10090</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6035,13 +6044,13 @@
         <v>3830</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>367</v>
+        <v>177</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="H23" s="7">
         <v>9</v>
@@ -6050,13 +6059,13 @@
         <v>6048</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>370</v>
+        <v>33</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="M23" s="7">
         <v>15</v>
@@ -6065,13 +6074,13 @@
         <v>9878</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>47</v>
+        <v>375</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6086,13 +6095,13 @@
         <v>8189</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="H24" s="7">
         <v>11</v>
@@ -6101,13 +6110,13 @@
         <v>7075</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="M24" s="7">
         <v>24</v>
@@ -6116,13 +6125,13 @@
         <v>15264</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6137,13 +6146,13 @@
         <v>6731</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="H25" s="7">
         <v>13</v>
@@ -6152,13 +6161,13 @@
         <v>8310</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>266</v>
+        <v>390</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="M25" s="7">
         <v>24</v>
@@ -6167,13 +6176,13 @@
         <v>15040</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>388</v>
+        <v>109</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6188,13 +6197,13 @@
         <v>46979</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="H26" s="7">
         <v>57</v>
@@ -6203,13 +6212,13 @@
         <v>36997</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="M26" s="7">
         <v>131</v>
@@ -6218,13 +6227,13 @@
         <v>83976</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6280,7 +6289,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -6292,13 +6301,13 @@
         <v>2562</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="H28" s="7">
         <v>6</v>
@@ -6307,13 +6316,13 @@
         <v>4652</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>361</v>
+        <v>406</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="M28" s="7">
         <v>9</v>
@@ -6322,13 +6331,13 @@
         <v>7214</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>406</v>
+        <v>56</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>120</v>
+        <v>410</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6343,13 +6352,13 @@
         <v>5164</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="H29" s="7">
         <v>12</v>
@@ -6358,13 +6367,13 @@
         <v>9188</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>410</v>
+        <v>285</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>139</v>
+        <v>414</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="M29" s="7">
         <v>19</v>
@@ -6373,13 +6382,13 @@
         <v>14352</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6394,13 +6403,13 @@
         <v>9739</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="H30" s="7">
         <v>13</v>
@@ -6409,13 +6418,13 @@
         <v>10700</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>181</v>
+        <v>423</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>419</v>
+        <v>424</v>
       </c>
       <c r="M30" s="7">
         <v>26</v>
@@ -6424,13 +6433,13 @@
         <v>20439</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>420</v>
+        <v>425</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>143</v>
+        <v>426</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>421</v>
+        <v>263</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6445,13 +6454,13 @@
         <v>10914</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>422</v>
+        <v>427</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>423</v>
+        <v>329</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="H31" s="7">
         <v>13</v>
@@ -6460,13 +6469,13 @@
         <v>10272</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="M31" s="7">
         <v>28</v>
@@ -6475,13 +6484,13 @@
         <v>21186</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -6496,13 +6505,13 @@
         <v>60527</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="H32" s="7">
         <v>66</v>
@@ -6511,13 +6520,13 @@
         <v>50913</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="M32" s="7">
         <v>150</v>
@@ -6526,13 +6535,13 @@
         <v>111439</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6600,13 +6609,13 @@
         <v>13745</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>212</v>
+        <v>444</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>441</v>
+        <v>262</v>
       </c>
       <c r="H34" s="7">
         <v>26</v>
@@ -6615,13 +6624,13 @@
         <v>18448</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>111</v>
+        <v>216</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="M34" s="7">
         <v>46</v>
@@ -6630,13 +6639,13 @@
         <v>32193</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -6651,13 +6660,13 @@
         <v>24122</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>447</v>
+        <v>414</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="H35" s="7">
         <v>42</v>
@@ -6666,13 +6675,13 @@
         <v>29041</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>50</v>
+        <v>453</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>450</v>
+        <v>344</v>
       </c>
       <c r="M35" s="7">
         <v>78</v>
@@ -6681,13 +6690,13 @@
         <v>53163</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>453</v>
+        <v>363</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -6702,13 +6711,13 @@
         <v>32421</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>389</v>
+        <v>456</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="H36" s="7">
         <v>46</v>
@@ -6717,13 +6726,13 @@
         <v>33182</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>457</v>
+        <v>433</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="M36" s="7">
         <v>93</v>
@@ -6732,13 +6741,13 @@
         <v>65603</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>200</v>
+        <v>460</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>459</v>
+        <v>145</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>450</v>
+        <v>461</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -6753,13 +6762,13 @@
         <v>44248</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="H37" s="7">
         <v>53</v>
@@ -6768,13 +6777,13 @@
         <v>36757</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>263</v>
+        <v>465</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>463</v>
+        <v>326</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>52</v>
+        <v>466</v>
       </c>
       <c r="M37" s="7">
         <v>117</v>
@@ -6783,13 +6792,13 @@
         <v>81005</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -6804,13 +6813,13 @@
         <v>209333</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="H38" s="7">
         <v>277</v>
@@ -6819,13 +6828,13 @@
         <v>194747</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="M38" s="7">
         <v>581</v>
@@ -6834,13 +6843,13 @@
         <v>404079</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -6896,7 +6905,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
     </row>
   </sheetData>
@@ -6917,7 +6926,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D859287-4B95-41AE-82DC-035DBB78AA58}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E00AE52-60D0-4062-8E8B-28862B0530BC}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6934,7 +6943,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7041,13 +7050,13 @@
         <v>1033</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>476</v>
+        <v>410</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -7062,7 +7071,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="M4" s="7">
         <v>1</v>
@@ -7071,13 +7080,13 @@
         <v>1033</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>479</v>
+        <v>149</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7092,13 +7101,13 @@
         <v>719</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="H5" s="7">
         <v>2</v>
@@ -7107,13 +7116,13 @@
         <v>1827</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="M5" s="7">
         <v>3</v>
@@ -7122,13 +7131,13 @@
         <v>2546</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7143,13 +7152,13 @@
         <v>2093</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="H6" s="7">
         <v>1</v>
@@ -7158,13 +7167,13 @@
         <v>1133</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="M6" s="7">
         <v>3</v>
@@ -7173,13 +7182,13 @@
         <v>3226</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -7194,7 +7203,7 @@
         <v>525</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>493</v>
+        <v>93</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>11</v>
@@ -7349,13 +7358,13 @@
         <v>3157</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>378</v>
+        <v>508</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>224</v>
+        <v>509</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="H10" s="7">
         <v>1</v>
@@ -7364,13 +7373,13 @@
         <v>617</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="M10" s="7">
         <v>5</v>
@@ -7379,13 +7388,13 @@
         <v>3774</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>512</v>
+        <v>423</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7400,13 +7409,13 @@
         <v>2969</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="H11" s="7">
         <v>3</v>
@@ -7415,13 +7424,13 @@
         <v>2252</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>214</v>
+        <v>517</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>517</v>
+        <v>369</v>
       </c>
       <c r="M11" s="7">
         <v>7</v>
@@ -7430,13 +7439,13 @@
         <v>5221</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7451,13 +7460,13 @@
         <v>4429</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>522</v>
+        <v>180</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>466</v>
+        <v>523</v>
       </c>
       <c r="H12" s="7">
         <v>3</v>
@@ -7466,13 +7475,13 @@
         <v>1982</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>523</v>
+        <v>228</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>524</v>
+        <v>134</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>525</v>
+        <v>452</v>
       </c>
       <c r="M12" s="7">
         <v>9</v>
@@ -7481,13 +7490,13 @@
         <v>6411</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>526</v>
+        <v>303</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7502,13 +7511,13 @@
         <v>13169</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="H13" s="7">
         <v>13</v>
@@ -7517,13 +7526,13 @@
         <v>9924</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>533</v>
+        <v>460</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="M13" s="7">
         <v>30</v>
@@ -7532,13 +7541,13 @@
         <v>23093</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7553,13 +7562,13 @@
         <v>34112</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="H14" s="7">
         <v>60</v>
@@ -7568,13 +7577,13 @@
         <v>41506</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="M14" s="7">
         <v>104</v>
@@ -7583,13 +7592,13 @@
         <v>75618</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7657,13 +7666,13 @@
         <v>3292</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>220</v>
+        <v>543</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="H16" s="7">
         <v>5</v>
@@ -7672,13 +7681,13 @@
         <v>3131</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>17</v>
+        <v>548</v>
       </c>
       <c r="M16" s="7">
         <v>10</v>
@@ -7687,13 +7696,13 @@
         <v>6423</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>549</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>550</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>551</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>552</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>553</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7708,13 +7717,13 @@
         <v>9088</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>555</v>
+        <v>144</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="H17" s="7">
         <v>8</v>
@@ -7723,13 +7732,13 @@
         <v>4854</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>558</v>
+        <v>217</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="M17" s="7">
         <v>22</v>
@@ -7738,13 +7747,13 @@
         <v>13943</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>560</v>
+        <v>548</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>561</v>
+        <v>519</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>562</v>
+        <v>556</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7759,13 +7768,13 @@
         <v>8232</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>563</v>
+        <v>557</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>564</v>
+        <v>558</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>331</v>
+        <v>559</v>
       </c>
       <c r="H18" s="7">
         <v>12</v>
@@ -7774,13 +7783,13 @@
         <v>8165</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>565</v>
+        <v>433</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>79</v>
+        <v>560</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>32</v>
+        <v>561</v>
       </c>
       <c r="M18" s="7">
         <v>24</v>
@@ -7789,13 +7798,13 @@
         <v>16396</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>566</v>
+        <v>135</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>567</v>
+        <v>152</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>235</v>
+        <v>562</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7810,13 +7819,13 @@
         <v>15106</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>55</v>
+        <v>564</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="H19" s="7">
         <v>34</v>
@@ -7825,13 +7834,13 @@
         <v>21357</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>296</v>
+        <v>566</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="M19" s="7">
         <v>55</v>
@@ -7840,13 +7849,13 @@
         <v>36462</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>411</v>
+        <v>569</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7861,13 +7870,13 @@
         <v>68294</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>572</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>573</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>574</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>575</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>576</v>
       </c>
       <c r="H20" s="7">
         <v>97</v>
@@ -7876,13 +7885,13 @@
         <v>65390</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>575</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>576</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>577</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>578</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>274</v>
       </c>
       <c r="M20" s="7">
         <v>195</v>
@@ -7891,13 +7900,13 @@
         <v>133684</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>578</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>579</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>580</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>581</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7965,13 +7974,13 @@
         <v>1399</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>526</v>
+        <v>430</v>
       </c>
       <c r="H22" s="7">
         <v>5</v>
@@ -7980,13 +7989,13 @@
         <v>2977</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>584</v>
+        <v>227</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="M22" s="7">
         <v>7</v>
@@ -7995,13 +8004,13 @@
         <v>4376</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>586</v>
+        <v>76</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>67</v>
+        <v>213</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -8016,13 +8025,13 @@
         <v>6104</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>589</v>
+        <v>102</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="H23" s="7">
         <v>5</v>
@@ -8031,13 +8040,13 @@
         <v>3820</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>378</v>
+        <v>508</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>56</v>
+        <v>586</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>450</v>
+        <v>587</v>
       </c>
       <c r="M23" s="7">
         <v>13</v>
@@ -8046,13 +8055,13 @@
         <v>9924</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>591</v>
+        <v>174</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>592</v>
+        <v>259</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>593</v>
+        <v>197</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -8067,13 +8076,13 @@
         <v>4867</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>594</v>
+        <v>588</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>595</v>
+        <v>589</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>596</v>
+        <v>590</v>
       </c>
       <c r="H24" s="7">
         <v>2</v>
@@ -8082,13 +8091,13 @@
         <v>1268</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>597</v>
+        <v>407</v>
       </c>
       <c r="K24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>526</v>
+        <v>591</v>
       </c>
       <c r="M24" s="7">
         <v>9</v>
@@ -8097,13 +8106,13 @@
         <v>6135</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>212</v>
+        <v>444</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>102</v>
+        <v>592</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>324</v>
+        <v>63</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -8118,13 +8127,13 @@
         <v>10096</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>598</v>
+        <v>593</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>599</v>
+        <v>345</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>600</v>
+        <v>594</v>
       </c>
       <c r="H25" s="7">
         <v>11</v>
@@ -8133,13 +8142,13 @@
         <v>6917</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>601</v>
+        <v>595</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>602</v>
+        <v>596</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>603</v>
+        <v>597</v>
       </c>
       <c r="M25" s="7">
         <v>25</v>
@@ -8148,13 +8157,13 @@
         <v>17012</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>263</v>
+        <v>465</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>604</v>
+        <v>598</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>605</v>
+        <v>599</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8169,13 +8178,13 @@
         <v>52155</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>607</v>
+        <v>601</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>608</v>
+        <v>602</v>
       </c>
       <c r="H26" s="7">
         <v>85</v>
@@ -8184,13 +8193,13 @@
         <v>54927</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>609</v>
+        <v>603</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>610</v>
+        <v>604</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>611</v>
+        <v>605</v>
       </c>
       <c r="M26" s="7">
         <v>158</v>
@@ -8199,13 +8208,13 @@
         <v>107082</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>612</v>
+        <v>606</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>613</v>
+        <v>607</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>614</v>
+        <v>608</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8261,7 +8270,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -8273,13 +8282,13 @@
         <v>2192</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>615</v>
+        <v>609</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>616</v>
+        <v>610</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="H28" s="7">
         <v>6</v>
@@ -8288,13 +8297,13 @@
         <v>5322</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>618</v>
+        <v>612</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>619</v>
+        <v>613</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>620</v>
+        <v>614</v>
       </c>
       <c r="M28" s="7">
         <v>9</v>
@@ -8303,13 +8312,13 @@
         <v>7514</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>621</v>
+        <v>615</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>622</v>
+        <v>616</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>623</v>
+        <v>455</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8324,13 +8333,13 @@
         <v>5138</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>624</v>
+        <v>617</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>625</v>
+        <v>618</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>626</v>
+        <v>619</v>
       </c>
       <c r="H29" s="7">
         <v>9</v>
@@ -8339,13 +8348,13 @@
         <v>6728</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>627</v>
+        <v>620</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>628</v>
+        <v>621</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>373</v>
+        <v>622</v>
       </c>
       <c r="M29" s="7">
         <v>16</v>
@@ -8354,13 +8363,13 @@
         <v>11866</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>629</v>
+        <v>623</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>523</v>
+        <v>624</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>369</v>
+        <v>625</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8375,13 +8384,13 @@
         <v>8218</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>337</v>
+        <v>628</v>
       </c>
       <c r="H30" s="7">
         <v>9</v>
@@ -8390,13 +8399,13 @@
         <v>6734</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>627</v>
+        <v>620</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="M30" s="7">
         <v>21</v>
@@ -8405,13 +8414,13 @@
         <v>14951</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>518</v>
+        <v>632</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -8426,13 +8435,13 @@
         <v>27489</v>
       </c>
       <c r="E31" s="7" t="s">
+        <v>634</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>635</v>
+      </c>
+      <c r="G31" s="7" t="s">
         <v>636</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>637</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>638</v>
       </c>
       <c r="H31" s="7">
         <v>36</v>
@@ -8441,13 +8450,13 @@
         <v>28084</v>
       </c>
       <c r="J31" s="7" t="s">
+        <v>637</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>638</v>
+      </c>
+      <c r="L31" s="7" t="s">
         <v>639</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>640</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>641</v>
       </c>
       <c r="M31" s="7">
         <v>72</v>
@@ -8456,13 +8465,13 @@
         <v>55574</v>
       </c>
       <c r="O31" s="7" t="s">
+        <v>640</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>641</v>
+      </c>
+      <c r="Q31" s="7" t="s">
         <v>642</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>643</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>644</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -8477,13 +8486,13 @@
         <v>56491</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>643</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>644</v>
+      </c>
+      <c r="G32" s="7" t="s">
         <v>645</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>646</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>647</v>
       </c>
       <c r="H32" s="7">
         <v>75</v>
@@ -8492,13 +8501,13 @@
         <v>57016</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>646</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>647</v>
+      </c>
+      <c r="L32" s="7" t="s">
         <v>648</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>649</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>650</v>
       </c>
       <c r="M32" s="7">
         <v>152</v>
@@ -8507,13 +8516,13 @@
         <v>113506</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>649</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>650</v>
+      </c>
+      <c r="Q32" s="7" t="s">
         <v>651</v>
-      </c>
-      <c r="P32" s="7" t="s">
-        <v>652</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>653</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -8581,13 +8590,13 @@
         <v>11074</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>655</v>
+        <v>613</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>114</v>
+        <v>653</v>
       </c>
       <c r="H34" s="7">
         <v>17</v>
@@ -8596,13 +8605,13 @@
         <v>12047</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>140</v>
+        <v>95</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>657</v>
+        <v>381</v>
       </c>
       <c r="M34" s="7">
         <v>32</v>
@@ -8611,13 +8620,13 @@
         <v>23121</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -8632,13 +8641,13 @@
         <v>24018</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="H35" s="7">
         <v>27</v>
@@ -8647,13 +8656,13 @@
         <v>19481</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>120</v>
+        <v>495</v>
       </c>
       <c r="M35" s="7">
         <v>61</v>
@@ -8662,13 +8671,13 @@
         <v>43500</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>114</v>
+        <v>179</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -8683,13 +8692,13 @@
         <v>27838</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>333</v>
+        <v>664</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>339</v>
+        <v>583</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>377</v>
+        <v>665</v>
       </c>
       <c r="H36" s="7">
         <v>27</v>
@@ -8698,13 +8707,13 @@
         <v>19282</v>
       </c>
       <c r="J36" s="7" t="s">
+        <v>666</v>
+      </c>
+      <c r="K36" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="L36" s="7" t="s">
         <v>667</v>
-      </c>
-      <c r="K36" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>668</v>
       </c>
       <c r="M36" s="7">
         <v>66</v>
@@ -8713,13 +8722,13 @@
         <v>47120</v>
       </c>
       <c r="O36" s="7" t="s">
+        <v>668</v>
+      </c>
+      <c r="P36" s="7" t="s">
         <v>669</v>
       </c>
-      <c r="P36" s="7" t="s">
-        <v>53</v>
-      </c>
       <c r="Q36" s="7" t="s">
-        <v>402</v>
+        <v>231</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -8737,10 +8746,10 @@
         <v>670</v>
       </c>
       <c r="F37" s="7" t="s">
+        <v>523</v>
+      </c>
+      <c r="G37" s="7" t="s">
         <v>671</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>672</v>
       </c>
       <c r="H37" s="7">
         <v>95</v>
@@ -8749,13 +8758,13 @@
         <v>67312</v>
       </c>
       <c r="J37" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="K37" s="7" t="s">
+        <v>672</v>
+      </c>
+      <c r="L37" s="7" t="s">
         <v>673</v>
-      </c>
-      <c r="K37" s="7" t="s">
-        <v>674</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>675</v>
       </c>
       <c r="M37" s="7">
         <v>184</v>
@@ -8764,13 +8773,13 @@
         <v>133696</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>677</v>
+        <v>434</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -8785,13 +8794,13 @@
         <v>219888</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="H38" s="7">
         <v>327</v>
@@ -8800,13 +8809,13 @@
         <v>227572</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="M38" s="7">
         <v>630</v>
@@ -8815,13 +8824,13 @@
         <v>447460</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -8877,7 +8886,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
     </row>
   </sheetData>
@@ -8898,7 +8907,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8D2544D-6F37-47A5-9D23-2F42DECCEA17}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CC26D22-CC4D-4C48-9D3B-57F54E3F9A76}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8915,7 +8924,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -9028,7 +9037,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -9043,7 +9052,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -9058,7 +9067,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -9079,7 +9088,7 @@
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -9094,7 +9103,7 @@
         <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -9109,7 +9118,7 @@
         <v>12</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -9130,7 +9139,7 @@
         <v>12</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -9145,7 +9154,7 @@
         <v>12</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -9160,7 +9169,7 @@
         <v>12</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -9175,13 +9184,13 @@
         <v>636</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -9196,7 +9205,7 @@
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
       <c r="M7" s="7">
         <v>1</v>
@@ -9205,13 +9214,13 @@
         <v>636</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -9226,13 +9235,13 @@
         <v>1688</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>698</v>
+        <v>278</v>
       </c>
       <c r="H8" s="7">
         <v>3</v>
@@ -9241,10 +9250,10 @@
         <v>1593</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>698</v>
+        <v>278</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>45</v>
@@ -9256,13 +9265,13 @@
         <v>3282</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>698</v>
+        <v>278</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -9336,7 +9345,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>108</v>
+        <v>698</v>
       </c>
       <c r="H10" s="7">
         <v>1</v>
@@ -9345,13 +9354,13 @@
         <v>605</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>303</v>
+        <v>700</v>
       </c>
       <c r="M10" s="7">
         <v>1</v>
@@ -9360,13 +9369,13 @@
         <v>605</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>703</v>
+        <v>221</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>445</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -9381,13 +9390,13 @@
         <v>2092</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>67</v>
+        <v>702</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>483</v>
+        <v>703</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -9402,7 +9411,7 @@
         <v>12</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>479</v>
+        <v>149</v>
       </c>
       <c r="M11" s="7">
         <v>3</v>
@@ -9411,13 +9420,13 @@
         <v>2092</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>704</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>705</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>401</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>706</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -9438,7 +9447,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>108</v>
+        <v>698</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -9453,7 +9462,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>479</v>
+        <v>149</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -9468,7 +9477,7 @@
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -9483,7 +9492,7 @@
         <v>2871</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>623</v>
+        <v>707</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>708</v>
@@ -9501,7 +9510,7 @@
         <v>710</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>406</v>
+        <v>580</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>711</v>
@@ -9516,10 +9525,10 @@
         <v>712</v>
       </c>
       <c r="P13" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>713</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>568</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -9644,7 +9653,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>584</v>
+        <v>723</v>
       </c>
       <c r="H16" s="7">
         <v>2</v>
@@ -9653,13 +9662,13 @@
         <v>1550</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>723</v>
+        <v>445</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>724</v>
+        <v>555</v>
       </c>
       <c r="M16" s="7">
         <v>2</v>
@@ -9668,13 +9677,13 @@
         <v>1550</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>549</v>
+        <v>725</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -9689,13 +9698,13 @@
         <v>621</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>616</v>
+        <v>610</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>586</v>
+        <v>726</v>
       </c>
       <c r="H17" s="7">
         <v>3</v>
@@ -9704,13 +9713,13 @@
         <v>2103</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>621</v>
+        <v>615</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="M17" s="7">
         <v>4</v>
@@ -9719,13 +9728,13 @@
         <v>2724</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>183</v>
+        <v>729</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>728</v>
+        <v>730</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -9740,13 +9749,13 @@
         <v>1784</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>622</v>
+        <v>731</v>
       </c>
       <c r="F18" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>729</v>
+        <v>104</v>
       </c>
       <c r="H18" s="7">
         <v>4</v>
@@ -9755,13 +9764,13 @@
         <v>1685</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>178</v>
+        <v>733</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>731</v>
+        <v>734</v>
       </c>
       <c r="M18" s="7">
         <v>6</v>
@@ -9770,13 +9779,13 @@
         <v>3468</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>278</v>
+        <v>735</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>732</v>
+        <v>736</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>526</v>
+        <v>737</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -9791,13 +9800,13 @@
         <v>6906</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>733</v>
+        <v>348</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>734</v>
+        <v>738</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>478</v>
+        <v>739</v>
       </c>
       <c r="H19" s="7">
         <v>4</v>
@@ -9806,13 +9815,13 @@
         <v>2806</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>319</v>
+        <v>179</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>58</v>
+        <v>740</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>735</v>
+        <v>741</v>
       </c>
       <c r="M19" s="7">
         <v>12</v>
@@ -9821,13 +9830,13 @@
         <v>9712</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>736</v>
+        <v>742</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>737</v>
+        <v>743</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>738</v>
+        <v>744</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -9842,13 +9851,13 @@
         <v>93023</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>739</v>
+        <v>745</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>740</v>
+        <v>746</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>741</v>
+        <v>747</v>
       </c>
       <c r="H20" s="7">
         <v>66</v>
@@ -9857,13 +9866,13 @@
         <v>48916</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>742</v>
+        <v>748</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>743</v>
+        <v>749</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>744</v>
+        <v>750</v>
       </c>
       <c r="M20" s="7">
         <v>173</v>
@@ -9872,13 +9881,13 @@
         <v>141940</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>745</v>
+        <v>751</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>746</v>
+        <v>752</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>747</v>
+        <v>753</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -9946,13 +9955,13 @@
         <v>422</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>748</v>
+        <v>754</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>140</v>
+        <v>755</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -9967,7 +9976,7 @@
         <v>12</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>749</v>
+        <v>105</v>
       </c>
       <c r="M22" s="7">
         <v>1</v>
@@ -9976,13 +9985,13 @@
         <v>422</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>750</v>
+        <v>94</v>
       </c>
       <c r="P22" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>751</v>
+        <v>756</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -10003,7 +10012,7 @@
         <v>12</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="H23" s="7">
         <v>2</v>
@@ -10012,13 +10021,13 @@
         <v>1558</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>752</v>
+        <v>757</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>55</v>
+        <v>758</v>
       </c>
       <c r="M23" s="7">
         <v>2</v>
@@ -10027,13 +10036,13 @@
         <v>1558</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>753</v>
+        <v>759</v>
       </c>
       <c r="P23" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>564</v>
+        <v>444</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -10048,13 +10057,13 @@
         <v>1794</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>754</v>
+        <v>760</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>755</v>
+        <v>761</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -10069,7 +10078,7 @@
         <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>749</v>
+        <v>105</v>
       </c>
       <c r="M24" s="7">
         <v>2</v>
@@ -10078,13 +10087,13 @@
         <v>1794</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>756</v>
+        <v>762</v>
       </c>
       <c r="P24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>757</v>
+        <v>186</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -10099,13 +10108,13 @@
         <v>9264</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>758</v>
+        <v>763</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>759</v>
+        <v>764</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>644</v>
+        <v>765</v>
       </c>
       <c r="H25" s="7">
         <v>7</v>
@@ -10114,13 +10123,13 @@
         <v>4968</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>760</v>
+        <v>766</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>761</v>
+        <v>767</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>762</v>
+        <v>768</v>
       </c>
       <c r="M25" s="7">
         <v>13</v>
@@ -10129,13 +10138,13 @@
         <v>14232</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>763</v>
+        <v>769</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>764</v>
+        <v>662</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>765</v>
+        <v>770</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -10150,13 +10159,13 @@
         <v>51555</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>766</v>
+        <v>771</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>767</v>
+        <v>772</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>768</v>
+        <v>773</v>
       </c>
       <c r="H26" s="7">
         <v>57</v>
@@ -10165,13 +10174,13 @@
         <v>48982</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>769</v>
+        <v>774</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>770</v>
+        <v>775</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>771</v>
+        <v>776</v>
       </c>
       <c r="M26" s="7">
         <v>112</v>
@@ -10180,13 +10189,13 @@
         <v>100538</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>772</v>
+        <v>777</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>773</v>
+        <v>778</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>774</v>
+        <v>779</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -10242,7 +10251,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -10254,13 +10263,13 @@
         <v>969</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>358</v>
+        <v>780</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>775</v>
+        <v>296</v>
       </c>
       <c r="H28" s="7">
         <v>1</v>
@@ -10275,7 +10284,7 @@
         <v>11</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>776</v>
+        <v>781</v>
       </c>
       <c r="M28" s="7">
         <v>2</v>
@@ -10284,13 +10293,13 @@
         <v>1760</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>777</v>
+        <v>550</v>
       </c>
       <c r="P28" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>778</v>
+        <v>782</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -10305,13 +10314,13 @@
         <v>902</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>779</v>
+        <v>783</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>75</v>
+        <v>337</v>
       </c>
       <c r="H29" s="7">
         <v>2</v>
@@ -10320,13 +10329,13 @@
         <v>1532</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>51</v>
+        <v>784</v>
       </c>
       <c r="K29" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>321</v>
+        <v>785</v>
       </c>
       <c r="M29" s="7">
         <v>3</v>
@@ -10335,13 +10344,13 @@
         <v>2434</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>780</v>
+        <v>786</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>781</v>
+        <v>610</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>782</v>
+        <v>787</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -10356,13 +10365,13 @@
         <v>160</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>783</v>
+        <v>788</v>
       </c>
       <c r="F30" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>784</v>
+        <v>789</v>
       </c>
       <c r="H30" s="7">
         <v>2</v>
@@ -10371,13 +10380,13 @@
         <v>1183</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>656</v>
+        <v>323</v>
       </c>
       <c r="K30" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>785</v>
+        <v>790</v>
       </c>
       <c r="M30" s="7">
         <v>3</v>
@@ -10386,13 +10395,13 @@
         <v>1343</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>786</v>
+        <v>547</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>787</v>
+        <v>791</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>788</v>
+        <v>180</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -10407,13 +10416,13 @@
         <v>4335</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>789</v>
+        <v>792</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>790</v>
+        <v>793</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>791</v>
+        <v>794</v>
       </c>
       <c r="H31" s="7">
         <v>5</v>
@@ -10422,13 +10431,13 @@
         <v>3720</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>375</v>
+        <v>430</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>485</v>
+        <v>795</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>792</v>
+        <v>796</v>
       </c>
       <c r="M31" s="7">
         <v>11</v>
@@ -10437,13 +10446,13 @@
         <v>8055</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>793</v>
+        <v>797</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>101</v>
+        <v>798</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>794</v>
+        <v>799</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -10458,13 +10467,13 @@
         <v>49976</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>795</v>
+        <v>800</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>796</v>
+        <v>801</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>797</v>
+        <v>722</v>
       </c>
       <c r="H32" s="7">
         <v>65</v>
@@ -10473,13 +10482,13 @@
         <v>49258</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>124</v>
+        <v>802</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>798</v>
+        <v>803</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>799</v>
+        <v>804</v>
       </c>
       <c r="M32" s="7">
         <v>126</v>
@@ -10488,13 +10497,13 @@
         <v>99234</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>800</v>
+        <v>805</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>801</v>
+        <v>806</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>802</v>
+        <v>807</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -10562,13 +10571,13 @@
         <v>1391</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>803</v>
+        <v>808</v>
       </c>
       <c r="F34" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>558</v>
+        <v>809</v>
       </c>
       <c r="H34" s="7">
         <v>4</v>
@@ -10577,13 +10586,13 @@
         <v>2945</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>224</v>
+        <v>810</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>804</v>
+        <v>811</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>805</v>
+        <v>812</v>
       </c>
       <c r="M34" s="7">
         <v>6</v>
@@ -10592,13 +10601,13 @@
         <v>4336</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>806</v>
+        <v>813</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>807</v>
+        <v>814</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>808</v>
+        <v>815</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -10613,13 +10622,13 @@
         <v>3615</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>809</v>
+        <v>816</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>810</v>
+        <v>817</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>658</v>
+        <v>818</v>
       </c>
       <c r="H35" s="7">
         <v>7</v>
@@ -10628,13 +10637,13 @@
         <v>5194</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>713</v>
+        <v>819</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>811</v>
+        <v>820</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>812</v>
+        <v>701</v>
       </c>
       <c r="M35" s="7">
         <v>12</v>
@@ -10643,13 +10652,13 @@
         <v>8809</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>813</v>
+        <v>820</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>814</v>
+        <v>743</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -10664,13 +10673,13 @@
         <v>3738</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>815</v>
+        <v>325</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>816</v>
+        <v>184</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>286</v>
+        <v>821</v>
       </c>
       <c r="H36" s="7">
         <v>6</v>
@@ -10679,13 +10688,13 @@
         <v>2868</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>817</v>
+        <v>822</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>818</v>
+        <v>808</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>819</v>
+        <v>549</v>
       </c>
       <c r="M36" s="7">
         <v>11</v>
@@ -10694,13 +10703,13 @@
         <v>6605</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>815</v>
+        <v>325</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>97</v>
+        <v>823</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>820</v>
+        <v>824</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -10715,13 +10724,13 @@
         <v>24013</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>821</v>
+        <v>825</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>277</v>
+        <v>826</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>822</v>
+        <v>65</v>
       </c>
       <c r="H37" s="7">
         <v>19</v>
@@ -10730,13 +10739,13 @@
         <v>13854</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>623</v>
+        <v>707</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>823</v>
+        <v>827</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>410</v>
+        <v>828</v>
       </c>
       <c r="M37" s="7">
         <v>43</v>
@@ -10745,13 +10754,13 @@
         <v>37867</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>824</v>
+        <v>309</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>104</v>
+        <v>591</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>825</v>
+        <v>829</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -10766,13 +10775,13 @@
         <v>233245</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>826</v>
+        <v>830</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>827</v>
+        <v>507</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>828</v>
+        <v>831</v>
       </c>
       <c r="H38" s="7">
         <v>234</v>
@@ -10781,13 +10790,13 @@
         <v>177685</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>829</v>
+        <v>832</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>830</v>
+        <v>833</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>831</v>
+        <v>834</v>
       </c>
       <c r="M38" s="7">
         <v>503</v>
@@ -10796,13 +10805,13 @@
         <v>410929</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>832</v>
+        <v>835</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>833</v>
+        <v>836</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>834</v>
+        <v>837</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -10858,7 +10867,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
     </row>
   </sheetData>
